--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -444,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0004391572757149302</v>
+        <v>2.731583450289686E-06</v>
       </c>
       <c r="E2">
-        <v>0.0004391572757149302</v>
+        <v>2.731583450289686E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,10 +458,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9997573798948934</v>
+        <v>0.9965475465685959</v>
       </c>
       <c r="E3">
-        <v>0.9997573798948934</v>
+        <v>0.9965475465685959</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.170839140668475E-24</v>
+        <v>1.536674452261432E-22</v>
       </c>
       <c r="E4">
-        <v>2.170839140668475E-24</v>
+        <v>1.536674452261432E-22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9998514467248971</v>
+        <v>0.999702717093282</v>
       </c>
       <c r="E5">
-        <v>0.9998514467248971</v>
+        <v>0.999702717093282</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999727755911805</v>
+        <v>0.9999803536737446</v>
       </c>
       <c r="E6">
-        <v>0.9999727755911805</v>
+        <v>0.9999803536737446</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -514,13 +514,13 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>2.220446049250313E-16</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4.608403205871582</v>
+        <v>4.104519844055176</v>
       </c>
       <c r="G7">
         <v>0.5</v>
